--- a/files/excel/route_list.xlsx
+++ b/files/excel/route_list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20010" windowHeight="9225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20010" windowHeight="9225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Памятка" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>№</t>
   </si>
@@ -63,16 +63,10 @@
     <t>ФИО водителя</t>
   </si>
   <si>
-    <t>Юрьев Михаил Сергеевич</t>
-  </si>
-  <si>
     <t>Номер водительского удостоверения</t>
   </si>
   <si>
     <t>Адрес, телефон</t>
-  </si>
-  <si>
-    <t>636840, г. Асино, Томская область, ул. Стадионная, 23а, кв. 56, тел. 8-952-156-2236</t>
   </si>
   <si>
     <t>Номер топливной карты</t>
@@ -167,12 +161,6 @@
   </si>
   <si>
     <t>(ФИО сотрудника)</t>
-  </si>
-  <si>
-    <t>Инженера 1 категории</t>
-  </si>
-  <si>
-    <t>Юрьева Михаила Сергеевича</t>
   </si>
   <si>
     <t>№ 7-Сиб/2 от 05.03.2021</t>
@@ -755,20 +743,107 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -785,112 +860,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -912,6 +882,12 @@
     <xf numFmtId="4" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -921,7 +897,19 @@
     <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1409,7 +1397,7 @@
   </sheetPr>
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A61" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A3" zoomScale="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -2345,8 +2333,8 @@
   </sheetPr>
   <dimension ref="B2:AH19"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2372,46 +2360,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="97" t="s">
+      <c r="D2" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
       <c r="X2" s="6"/>
-      <c r="Y2" s="100"/>
-      <c r="Z2" s="100"/>
-      <c r="AA2" s="100"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
       <c r="AB2" s="6"/>
     </row>
     <row r="3" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H3" s="1"/>
-      <c r="J3" s="98" t="s">
+      <c r="J3" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="98"/>
-      <c r="L3" s="103" t="s">
+      <c r="K3" s="73"/>
+      <c r="L3" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
       <c r="P3" s="60">
         <v>2021</v>
       </c>
@@ -2423,325 +2411,323 @@
     </row>
     <row r="4" spans="2:34" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:34" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="101" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="77"/>
+      <c r="AF5" s="77"/>
+      <c r="AG5" s="77"/>
+      <c r="AH5" s="77"/>
+    </row>
+    <row r="6" spans="2:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="V5" s="101"/>
-      <c r="W5" s="101"/>
-      <c r="X5" s="101"/>
-      <c r="Y5" s="101"/>
-      <c r="Z5" s="101"/>
-      <c r="AA5" s="101"/>
-      <c r="AB5" s="102"/>
-      <c r="AC5" s="102"/>
-      <c r="AD5" s="102"/>
-      <c r="AE5" s="102"/>
-      <c r="AF5" s="102"/>
-      <c r="AG5" s="102"/>
-      <c r="AH5" s="102"/>
-    </row>
-    <row r="6" spans="2:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="69" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="96" t="s">
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="69"/>
+      <c r="AC6" s="69"/>
+      <c r="AD6" s="69"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="69"/>
+      <c r="AG6" s="69"/>
+      <c r="AH6" s="70"/>
+    </row>
+    <row r="7" spans="2:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="101" t="s">
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="V6" s="101"/>
-      <c r="W6" s="101"/>
-      <c r="X6" s="101"/>
-      <c r="Y6" s="101"/>
-      <c r="Z6" s="101"/>
-      <c r="AA6" s="101"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="66"/>
-      <c r="AG6" s="66"/>
-      <c r="AH6" s="67"/>
-    </row>
-    <row r="7" spans="2:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="83" t="s">
+      <c r="R7" s="85"/>
+      <c r="S7" s="85"/>
+      <c r="T7" s="85"/>
+      <c r="U7" s="85"/>
+      <c r="V7" s="85"/>
+      <c r="W7" s="85"/>
+      <c r="X7" s="85"/>
+      <c r="Y7" s="85"/>
+      <c r="Z7" s="85"/>
+      <c r="AA7" s="85"/>
+      <c r="AB7" s="85"/>
+      <c r="AC7" s="86"/>
+      <c r="AD7" s="90"/>
+      <c r="AE7" s="91"/>
+      <c r="AF7" s="91"/>
+      <c r="AG7" s="91"/>
+      <c r="AH7" s="92"/>
+    </row>
+    <row r="8" spans="2:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="83" t="s">
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="81">
+        <f>D11</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="82"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
-      <c r="T7" s="84"/>
-      <c r="U7" s="84"/>
-      <c r="V7" s="84"/>
-      <c r="W7" s="84"/>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="84"/>
-      <c r="Z7" s="84"/>
-      <c r="AA7" s="84"/>
-      <c r="AB7" s="84"/>
-      <c r="AC7" s="85"/>
-      <c r="AD7" s="86"/>
-      <c r="AE7" s="87"/>
-      <c r="AF7" s="87"/>
-      <c r="AG7" s="87"/>
-      <c r="AH7" s="88"/>
-    </row>
-    <row r="8" spans="2:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="76">
-        <f>D11</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="77"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="79"/>
-      <c r="R8" s="79"/>
-      <c r="S8" s="79"/>
-      <c r="T8" s="79"/>
-      <c r="U8" s="79"/>
-      <c r="V8" s="79"/>
-      <c r="W8" s="79"/>
-      <c r="X8" s="79"/>
-      <c r="Y8" s="79"/>
-      <c r="Z8" s="79"/>
-      <c r="AA8" s="79"/>
-      <c r="AB8" s="79"/>
-      <c r="AC8" s="70"/>
-      <c r="AD8" s="76" t="e">
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="81" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AE8" s="77"/>
-      <c r="AF8" s="77"/>
-      <c r="AG8" s="77"/>
-      <c r="AH8" s="78"/>
+      <c r="AE8" s="82"/>
+      <c r="AF8" s="82"/>
+      <c r="AG8" s="82"/>
+      <c r="AH8" s="83"/>
     </row>
     <row r="9" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="89" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="90"/>
-      <c r="T9" s="90"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="90"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="90"/>
-      <c r="AB9" s="90"/>
-      <c r="AC9" s="90"/>
-      <c r="AD9" s="90"/>
-      <c r="AE9" s="90"/>
-      <c r="AF9" s="90"/>
-      <c r="AG9" s="90"/>
-      <c r="AH9" s="91"/>
+      <c r="B9" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="94"/>
+      <c r="Z9" s="94"/>
+      <c r="AA9" s="94"/>
+      <c r="AB9" s="94"/>
+      <c r="AC9" s="94"/>
+      <c r="AD9" s="94"/>
+      <c r="AE9" s="94"/>
+      <c r="AF9" s="94"/>
+      <c r="AG9" s="94"/>
+      <c r="AH9" s="95"/>
     </row>
     <row r="10" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="92" t="s">
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92" t="s">
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92" t="s">
+      <c r="R10" s="96"/>
+      <c r="S10" s="96"/>
+      <c r="T10" s="96"/>
+      <c r="U10" s="96"/>
+      <c r="V10" s="96"/>
+      <c r="W10" s="96"/>
+      <c r="X10" s="96"/>
+      <c r="Y10" s="96"/>
+      <c r="Z10" s="96"/>
+      <c r="AA10" s="96"/>
+      <c r="AB10" s="96"/>
+      <c r="AC10" s="96"/>
+      <c r="AD10" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="92" t="s">
+      <c r="AE10" s="100"/>
+      <c r="AF10" s="100"/>
+      <c r="AG10" s="100"/>
+      <c r="AH10" s="100"/>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B11" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="R10" s="92"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="92"/>
-      <c r="X10" s="92"/>
-      <c r="Y10" s="92"/>
-      <c r="Z10" s="92"/>
-      <c r="AA10" s="92"/>
-      <c r="AB10" s="92"/>
-      <c r="AC10" s="92"/>
-      <c r="AD10" s="71" t="s">
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="102"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="102"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="102"/>
+      <c r="X11" s="102"/>
+      <c r="Y11" s="102"/>
+      <c r="Z11" s="102"/>
+      <c r="AA11" s="102"/>
+      <c r="AB11" s="102"/>
+      <c r="AC11" s="102"/>
+      <c r="AD11" s="103"/>
+      <c r="AE11" s="103"/>
+      <c r="AF11" s="103"/>
+      <c r="AG11" s="103"/>
+      <c r="AH11" s="104"/>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B12" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="AE10" s="71"/>
-      <c r="AF10" s="71"/>
-      <c r="AG10" s="71"/>
-      <c r="AH10" s="71"/>
-    </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B11" s="72" t="s">
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="73"/>
-      <c r="W11" s="73"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="73"/>
-      <c r="Z11" s="73"/>
-      <c r="AA11" s="73"/>
-      <c r="AB11" s="73"/>
-      <c r="AC11" s="73"/>
-      <c r="AD11" s="74"/>
-      <c r="AE11" s="74"/>
-      <c r="AF11" s="74"/>
-      <c r="AG11" s="74"/>
-      <c r="AH11" s="75"/>
-    </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B12" s="94" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="94" t="s">
-        <v>29</v>
-      </c>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94"/>
-      <c r="T12" s="94"/>
-      <c r="U12" s="94"/>
-      <c r="V12" s="94"/>
-      <c r="W12" s="94"/>
-      <c r="X12" s="94"/>
-      <c r="Y12" s="94"/>
-      <c r="Z12" s="94"/>
-      <c r="AA12" s="94"/>
-      <c r="AB12" s="94"/>
-      <c r="AC12" s="95"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="98"/>
+      <c r="W12" s="98"/>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="98"/>
+      <c r="AA12" s="98"/>
+      <c r="AB12" s="98"/>
+      <c r="AC12" s="99"/>
       <c r="AD12" s="8"/>
       <c r="AE12" s="9"/>
       <c r="AF12" s="56"/>
@@ -2749,20 +2735,18 @@
       <c r="AH12" s="10"/>
     </row>
     <row r="14" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C14" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="105"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -2776,31 +2760,31 @@
       <c r="AC14" s="3"/>
     </row>
     <row r="15" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C15" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="68"/>
-      <c r="AA15" s="68"/>
-      <c r="AB15" s="68"/>
-      <c r="AC15" s="68"/>
+      <c r="C15" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="S15" s="87"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="87"/>
+      <c r="V15" s="87"/>
+      <c r="W15" s="87"/>
+      <c r="X15" s="87"/>
+      <c r="Y15" s="87"/>
+      <c r="Z15" s="87"/>
+      <c r="AA15" s="87"/>
+      <c r="AB15" s="87"/>
+      <c r="AC15" s="87"/>
     </row>
     <row r="17" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
@@ -2828,46 +2812,68 @@
       <c r="AC17" s="3"/>
     </row>
     <row r="18" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="S18" s="81"/>
-      <c r="T18" s="81"/>
-      <c r="U18" s="81"/>
-      <c r="V18" s="81"/>
-      <c r="W18" s="81"/>
-      <c r="X18" s="81"/>
-      <c r="Y18" s="81"/>
-      <c r="Z18" s="81"/>
-      <c r="AA18" s="81"/>
-      <c r="AB18" s="81"/>
-      <c r="AC18" s="81"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="S18" s="88"/>
+      <c r="T18" s="88"/>
+      <c r="U18" s="88"/>
+      <c r="V18" s="88"/>
+      <c r="W18" s="88"/>
+      <c r="X18" s="88"/>
+      <c r="Y18" s="88"/>
+      <c r="Z18" s="88"/>
+      <c r="AA18" s="88"/>
+      <c r="AB18" s="88"/>
+      <c r="AC18" s="88"/>
     </row>
     <row r="19" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="S19" s="82"/>
-      <c r="T19" s="82"/>
-      <c r="U19" s="82"/>
-      <c r="V19" s="82"/>
-      <c r="W19" s="82"/>
-      <c r="X19" s="82"/>
-      <c r="Y19" s="82"/>
-      <c r="Z19" s="82"/>
-      <c r="AA19" s="82"/>
-      <c r="AB19" s="82"/>
-      <c r="AC19" s="82"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="89"/>
+      <c r="Z19" s="89"/>
+      <c r="AA19" s="89"/>
+      <c r="AB19" s="89"/>
+      <c r="AC19" s="89"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="38">
+    <mergeCell ref="AB6:AH6"/>
+    <mergeCell ref="C15:N15"/>
+    <mergeCell ref="S15:AC15"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="AD10:AH10"/>
+    <mergeCell ref="B11:AH11"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="C14:N14"/>
+    <mergeCell ref="C18:N18"/>
+    <mergeCell ref="S18:AC19"/>
+    <mergeCell ref="AD8:AH8"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="AD7:AH7"/>
+    <mergeCell ref="B9:AH9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:AC10"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="Q12:AC12"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:T5"/>
     <mergeCell ref="D6:T6"/>
@@ -2884,28 +2890,6 @@
     <mergeCell ref="I7:P7"/>
     <mergeCell ref="Q7:AC7"/>
     <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="C18:N18"/>
-    <mergeCell ref="S18:AC19"/>
-    <mergeCell ref="AD8:AH8"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="AD7:AH7"/>
-    <mergeCell ref="B9:AH9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:AC10"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="Q12:AC12"/>
-    <mergeCell ref="AB6:AH6"/>
-    <mergeCell ref="C15:N15"/>
-    <mergeCell ref="S15:AC15"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="AD10:AH10"/>
-    <mergeCell ref="B11:AH11"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="C14:N14"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:O3">
@@ -2929,8 +2913,8 @@
   </sheetPr>
   <dimension ref="A4:AT38"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView view="pageBreakPreview" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5:AI5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2942,134 +2926,130 @@
   <sheetData>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="X4" s="57"/>
-      <c r="Y4" s="114" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z4" s="114"/>
-      <c r="AA4" s="114"/>
-      <c r="AB4" s="114"/>
-      <c r="AC4" s="114"/>
-      <c r="AD4" s="114"/>
-      <c r="AE4" s="114"/>
-      <c r="AF4" s="114"/>
-      <c r="AG4" s="114"/>
-      <c r="AH4" s="114"/>
-      <c r="AI4" s="114"/>
+      <c r="Y4" s="108"/>
+      <c r="Z4" s="108"/>
+      <c r="AA4" s="108"/>
+      <c r="AB4" s="108"/>
+      <c r="AC4" s="108"/>
+      <c r="AD4" s="108"/>
+      <c r="AE4" s="108"/>
+      <c r="AF4" s="108"/>
+      <c r="AG4" s="108"/>
+      <c r="AH4" s="108"/>
+      <c r="AI4" s="108"/>
       <c r="AJ4" s="34"/>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="X5" s="114" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y5" s="114"/>
-      <c r="Z5" s="114"/>
-      <c r="AA5" s="114"/>
-      <c r="AB5" s="114"/>
-      <c r="AC5" s="114"/>
-      <c r="AD5" s="114"/>
-      <c r="AE5" s="114"/>
-      <c r="AF5" s="114"/>
-      <c r="AG5" s="114"/>
-      <c r="AH5" s="114"/>
-      <c r="AI5" s="114"/>
+      <c r="X5" s="108"/>
+      <c r="Y5" s="108"/>
+      <c r="Z5" s="108"/>
+      <c r="AA5" s="108"/>
+      <c r="AB5" s="108"/>
+      <c r="AC5" s="108"/>
+      <c r="AD5" s="108"/>
+      <c r="AE5" s="108"/>
+      <c r="AF5" s="108"/>
+      <c r="AG5" s="108"/>
+      <c r="AH5" s="108"/>
+      <c r="AI5" s="108"/>
       <c r="AJ5" s="34"/>
       <c r="AK5" s="34"/>
     </row>
     <row r="7" spans="1:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="120"/>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="120"/>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
-      <c r="S7" s="120"/>
-      <c r="T7" s="120"/>
-      <c r="U7" s="120"/>
-      <c r="V7" s="120"/>
-      <c r="W7" s="120"/>
-      <c r="X7" s="120"/>
-      <c r="Y7" s="120"/>
-      <c r="Z7" s="120"/>
-      <c r="AA7" s="120"/>
-      <c r="AB7" s="120"/>
-      <c r="AC7" s="120"/>
-      <c r="AD7" s="120"/>
-      <c r="AE7" s="120"/>
-      <c r="AF7" s="120"/>
-      <c r="AG7" s="120"/>
-      <c r="AH7" s="120"/>
-      <c r="AI7" s="120"/>
-      <c r="AJ7" s="120"/>
+      <c r="A7" s="116"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
+      <c r="Y7" s="116"/>
+      <c r="Z7" s="116"/>
+      <c r="AA7" s="116"/>
+      <c r="AB7" s="116"/>
+      <c r="AC7" s="116"/>
+      <c r="AD7" s="116"/>
+      <c r="AE7" s="116"/>
+      <c r="AF7" s="116"/>
+      <c r="AG7" s="116"/>
+      <c r="AH7" s="116"/>
+      <c r="AI7" s="116"/>
+      <c r="AJ7" s="116"/>
       <c r="AK7" s="35"/>
       <c r="AL7" s="35"/>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="113"/>
-      <c r="M9" s="113"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="113"/>
-      <c r="Q9" s="113"/>
-      <c r="R9" s="113"/>
-      <c r="S9" s="113"/>
-      <c r="T9" s="113"/>
-      <c r="U9" s="113"/>
-      <c r="V9" s="113"/>
-      <c r="W9" s="113"/>
-      <c r="X9" s="113"/>
-      <c r="Y9" s="113"/>
-      <c r="Z9" s="113"/>
-      <c r="AA9" s="113"/>
-      <c r="AB9" s="113"/>
-      <c r="AC9" s="113"/>
-      <c r="AD9" s="113"/>
-      <c r="AE9" s="113"/>
-      <c r="AF9" s="113"/>
-      <c r="AG9" s="113"/>
-      <c r="AH9" s="113"/>
-      <c r="AI9" s="113"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="107"/>
+      <c r="U9" s="107"/>
+      <c r="V9" s="107"/>
+      <c r="W9" s="107"/>
+      <c r="X9" s="107"/>
+      <c r="Y9" s="107"/>
+      <c r="Z9" s="107"/>
+      <c r="AA9" s="107"/>
+      <c r="AB9" s="107"/>
+      <c r="AC9" s="107"/>
+      <c r="AD9" s="107"/>
+      <c r="AE9" s="107"/>
+      <c r="AF9" s="107"/>
+      <c r="AG9" s="107"/>
+      <c r="AH9" s="107"/>
+      <c r="AI9" s="107"/>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C10" s="53"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="122"/>
-      <c r="N10" s="122"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
       <c r="O10" s="53"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="106"/>
-      <c r="U10" s="106"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="120"/>
+      <c r="R10" s="120"/>
+      <c r="S10" s="120"/>
+      <c r="T10" s="120"/>
+      <c r="U10" s="120"/>
       <c r="V10" s="53"/>
       <c r="W10" s="53"/>
       <c r="X10" s="53"/>
@@ -3220,60 +3200,60 @@
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C15" s="33" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P15" s="58">
         <v>7</v>
       </c>
       <c r="Q15" s="39" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="S15" s="37"/>
       <c r="T15" s="37"/>
       <c r="AN15" s="52"/>
       <c r="AO15" s="52" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AP15" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AQ15" s="52"/>
       <c r="AR15" s="52"/>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C16" s="33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AN16" s="52"/>
       <c r="AO16" s="52" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AP16" s="52" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AQ16" s="52"/>
       <c r="AR16" s="52"/>
     </row>
     <row r="17" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B17" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="108">
+        <v>36</v>
+      </c>
+      <c r="F17" s="121">
         <f>'ПЛ-ТК'!$N$12</f>
         <v>0</v>
       </c>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="121"/>
       <c r="I17" s="39" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K17" s="34"/>
       <c r="AN17" s="52"/>
       <c r="AO17" s="52" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AP17" s="52" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AQ17" s="52"/>
       <c r="AR17" s="52"/>
@@ -3281,10 +3261,10 @@
     <row r="18" spans="2:44" x14ac:dyDescent="0.25">
       <c r="AN18" s="52"/>
       <c r="AO18" s="52" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AP18" s="52" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AQ18" s="52"/>
       <c r="AR18" s="52"/>
@@ -3293,58 +3273,58 @@
       <c r="C19" s="40"/>
       <c r="I19" s="41"/>
       <c r="N19" s="42"/>
-      <c r="O19" s="119"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="119"/>
-      <c r="R19" s="119"/>
-      <c r="T19" s="117"/>
-      <c r="U19" s="117"/>
+      <c r="O19" s="115"/>
+      <c r="P19" s="115"/>
+      <c r="Q19" s="115"/>
+      <c r="R19" s="115"/>
+      <c r="T19" s="111"/>
+      <c r="U19" s="111"/>
       <c r="V19" s="43"/>
-      <c r="W19" s="118"/>
-      <c r="X19" s="118"/>
-      <c r="Y19" s="118"/>
-      <c r="Z19" s="118"/>
+      <c r="W19" s="112"/>
+      <c r="X19" s="112"/>
+      <c r="Y19" s="112"/>
+      <c r="Z19" s="112"/>
       <c r="AN19" s="52"/>
       <c r="AO19" s="52" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AP19" s="52" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AQ19" s="52"/>
       <c r="AR19" s="52"/>
     </row>
     <row r="20" spans="2:44" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I20" s="41" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N20" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="O20" s="111">
+        <v>44</v>
+      </c>
+      <c r="O20" s="114">
         <f>'ПЛ-ТК'!$N$12</f>
         <v>0</v>
       </c>
-      <c r="P20" s="111"/>
-      <c r="Q20" s="111"/>
-      <c r="R20" s="111"/>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="114"/>
+      <c r="R20" s="114"/>
       <c r="S20" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="T20" s="107">
+        <v>45</v>
+      </c>
+      <c r="T20" s="113">
         <v>2.2799999999999998</v>
       </c>
-      <c r="U20" s="107"/>
+      <c r="U20" s="113"/>
       <c r="V20" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="W20" s="111">
+        <v>44</v>
+      </c>
+      <c r="W20" s="114">
         <f>O20*T20</f>
         <v>0</v>
       </c>
-      <c r="X20" s="111"/>
-      <c r="Y20" s="111"/>
-      <c r="Z20" s="111"/>
+      <c r="X20" s="114"/>
+      <c r="Y20" s="114"/>
+      <c r="Z20" s="114"/>
       <c r="AO20" s="52"/>
       <c r="AP20" s="52"/>
       <c r="AQ20" s="52"/>
@@ -3370,7 +3350,7 @@
     </row>
     <row r="22" spans="2:44" x14ac:dyDescent="0.25">
       <c r="C22" s="33" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AO22" s="52"/>
       <c r="AP22" s="52"/>
@@ -3378,18 +3358,18 @@
     </row>
     <row r="24" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B24" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="U24" s="111">
+        <v>57</v>
+      </c>
+      <c r="U24" s="114">
         <f>W20</f>
         <v>0</v>
       </c>
-      <c r="V24" s="111"/>
-      <c r="W24" s="111"/>
-      <c r="X24" s="111"/>
-      <c r="Y24" s="111"/>
+      <c r="V24" s="114"/>
+      <c r="W24" s="114"/>
+      <c r="X24" s="114"/>
+      <c r="Y24" s="114"/>
       <c r="Z24" s="46" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AB24" s="44"/>
       <c r="AC24" s="46"/>
@@ -3399,23 +3379,23 @@
     </row>
     <row r="26" spans="2:44" x14ac:dyDescent="0.25">
       <c r="C26" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="I26" s="115">
+        <v>47</v>
+      </c>
+      <c r="I26" s="109">
         <f>Памятка!$L$35</f>
         <v>0</v>
       </c>
-      <c r="J26" s="115"/>
-      <c r="K26" s="115"/>
-      <c r="L26" s="115"/>
+      <c r="J26" s="109"/>
+      <c r="K26" s="109"/>
+      <c r="L26" s="109"/>
       <c r="M26" s="46" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O26" s="44"/>
     </row>
     <row r="30" spans="2:44" x14ac:dyDescent="0.25">
       <c r="C30" s="33" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P30" s="47"/>
       <c r="Q30" s="48"/>
@@ -3424,31 +3404,31 @@
       <c r="T30" s="48"/>
       <c r="U30" s="48"/>
       <c r="V30" s="48"/>
-      <c r="X30" s="110"/>
-      <c r="Y30" s="110"/>
-      <c r="Z30" s="110"/>
-      <c r="AA30" s="110"/>
-      <c r="AB30" s="110"/>
-      <c r="AC30" s="110"/>
+      <c r="X30" s="118"/>
+      <c r="Y30" s="118"/>
+      <c r="Z30" s="118"/>
+      <c r="AA30" s="118"/>
+      <c r="AB30" s="118"/>
+      <c r="AC30" s="118"/>
       <c r="AD30" s="47"/>
       <c r="AE30" s="33" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="2:44" x14ac:dyDescent="0.25">
       <c r="P31" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q31" s="109"/>
-      <c r="R31" s="109"/>
+        <v>51</v>
+      </c>
+      <c r="Q31" s="122"/>
+      <c r="R31" s="122"/>
       <c r="S31" s="36"/>
-      <c r="T31" s="121"/>
-      <c r="U31" s="110"/>
-      <c r="V31" s="110"/>
-      <c r="W31" s="110"/>
-      <c r="X31" s="110"/>
-      <c r="Y31" s="110"/>
-      <c r="Z31" s="110"/>
+      <c r="T31" s="117"/>
+      <c r="U31" s="118"/>
+      <c r="V31" s="118"/>
+      <c r="W31" s="118"/>
+      <c r="X31" s="118"/>
+      <c r="Y31" s="118"/>
+      <c r="Z31" s="118"/>
       <c r="AA31" s="59"/>
       <c r="AB31" s="50"/>
       <c r="AC31" s="50"/>
@@ -3466,34 +3446,34 @@
     </row>
     <row r="35" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C35" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="J35" s="116">
+        <v>52</v>
+      </c>
+      <c r="J35" s="110">
         <f>'ПЛ-ТК'!N12</f>
         <v>0</v>
       </c>
-      <c r="K35" s="116"/>
-      <c r="L35" s="116"/>
-      <c r="M35" s="116"/>
-      <c r="N35" s="116"/>
+      <c r="K35" s="110"/>
+      <c r="L35" s="110"/>
+      <c r="M35" s="110"/>
+      <c r="N35" s="110"/>
       <c r="O35" s="33" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C36" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="L36" s="112">
+        <v>54</v>
+      </c>
+      <c r="L36" s="106">
         <f>U24</f>
         <v>0</v>
       </c>
-      <c r="M36" s="112"/>
-      <c r="N36" s="112"/>
-      <c r="O36" s="112"/>
-      <c r="P36" s="112"/>
+      <c r="M36" s="106"/>
+      <c r="N36" s="106"/>
+      <c r="O36" s="106"/>
+      <c r="P36" s="106"/>
       <c r="Q36" s="33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="3:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3523,14 +3503,19 @@
       <c r="O38" s="48"/>
       <c r="P38" s="48"/>
       <c r="Q38" s="48"/>
-      <c r="R38" s="113"/>
-      <c r="S38" s="113"/>
-      <c r="T38" s="113"/>
-      <c r="U38" s="113"/>
+      <c r="R38" s="107"/>
+      <c r="S38" s="107"/>
+      <c r="T38" s="107"/>
+      <c r="U38" s="107"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="21">
+    <mergeCell ref="P10:U10"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="X30:AC30"/>
+    <mergeCell ref="U24:Y24"/>
     <mergeCell ref="L36:P36"/>
     <mergeCell ref="R38:U38"/>
     <mergeCell ref="X5:AI5"/>
@@ -3547,11 +3532,6 @@
     <mergeCell ref="T31:Z31"/>
     <mergeCell ref="C9:AI9"/>
     <mergeCell ref="D10:N10"/>
-    <mergeCell ref="P10:U10"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="X30:AC30"/>
-    <mergeCell ref="U24:Y24"/>
   </mergeCells>
   <conditionalFormatting sqref="I26:L26">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
